--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H2">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.237840333333334</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>12.713521</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q2">
-        <v>759.2431072105687</v>
+        <v>2.593306286232334</v>
       </c>
       <c r="R2">
-        <v>6833.187964895118</v>
+        <v>23.339756576091</v>
       </c>
       <c r="S2">
-        <v>0.1551994205571235</v>
+        <v>0.000633771103168673</v>
       </c>
       <c r="T2">
-        <v>0.1551994205571235</v>
+        <v>0.0006337711031686729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H3">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.231839666666666</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N3">
-        <v>15.695519</v>
+        <v>12.713521</v>
       </c>
       <c r="O3">
-        <v>0.5524832588499997</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P3">
-        <v>0.5524832588499998</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q3">
-        <v>937.3260652845514</v>
+        <v>395.7942153089012</v>
       </c>
       <c r="R3">
-        <v>8435.934587560963</v>
+        <v>3562.147937780111</v>
       </c>
       <c r="S3">
-        <v>0.1916019530815516</v>
+        <v>0.09672707685775792</v>
       </c>
       <c r="T3">
-        <v>0.1916019530815516</v>
+        <v>0.09672707685775789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>239.807332</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H4">
-        <v>719.421996</v>
+        <v>280.185791</v>
       </c>
       <c r="I4">
-        <v>0.4642019905988459</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J4">
-        <v>0.4642019905988459</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.237840333333334</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N4">
-        <v>12.713521</v>
+        <v>15.695519</v>
       </c>
       <c r="O4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q4">
-        <v>1016.265183778657</v>
+        <v>488.6290451300588</v>
       </c>
       <c r="R4">
-        <v>9146.386654007916</v>
+        <v>4397.66140617053</v>
       </c>
       <c r="S4">
-        <v>0.2077381620681386</v>
+        <v>0.119414729612308</v>
       </c>
       <c r="T4">
-        <v>0.2077381620681386</v>
+        <v>0.119414729612308</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.231839666666666</v>
+        <v>0.027767</v>
       </c>
       <c r="N5">
-        <v>15.695519</v>
+        <v>0.083301</v>
       </c>
       <c r="O5">
-        <v>0.5524832588499997</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P5">
-        <v>0.5524832588499998</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q5">
-        <v>1254.633511915102</v>
+        <v>6.658730187644</v>
       </c>
       <c r="R5">
-        <v>11291.70160723592</v>
+        <v>59.928571688796</v>
       </c>
       <c r="S5">
-        <v>0.2564638285307073</v>
+        <v>0.001627309045263929</v>
       </c>
       <c r="T5">
-        <v>0.2564638285307074</v>
+        <v>0.001627309045263929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.63589966666666</v>
+        <v>239.807332</v>
       </c>
       <c r="H6">
-        <v>292.907699</v>
+        <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.1889966357624789</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J6">
-        <v>0.1889966357624789</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>12.713521</v>
       </c>
       <c r="O6">
-        <v>0.4475167411500002</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P6">
-        <v>0.4475167411500002</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q6">
-        <v>413.7653535886865</v>
+        <v>1016.265183778657</v>
       </c>
       <c r="R6">
-        <v>3723.888182298179</v>
+        <v>9146.386654007916</v>
       </c>
       <c r="S6">
-        <v>0.08457915852473816</v>
+        <v>0.2483622972167551</v>
       </c>
       <c r="T6">
-        <v>0.08457915852473816</v>
+        <v>0.248362297216755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.63589966666666</v>
+        <v>239.807332</v>
       </c>
       <c r="H7">
-        <v>292.907699</v>
+        <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.1889966357624789</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J7">
-        <v>0.1889966357624789</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.231839666666666</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N7">
         <v>15.695519</v>
       </c>
       <c r="O7">
-        <v>0.5524832588499997</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P7">
-        <v>0.5524832588499998</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q7">
-        <v>510.8153727667533</v>
+        <v>1254.633511915103</v>
       </c>
       <c r="R7">
-        <v>4597.338354900779</v>
+        <v>11291.70160723593</v>
       </c>
       <c r="S7">
-        <v>0.1044174772377408</v>
+        <v>0.3066164876629555</v>
       </c>
       <c r="T7">
-        <v>0.1044174772377408</v>
+        <v>0.3066164876629555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>97.63589966666666</v>
+      </c>
+      <c r="H8">
+        <v>292.907699</v>
+      </c>
+      <c r="I8">
+        <v>0.226618328501791</v>
+      </c>
+      <c r="J8">
+        <v>0.2266183285017909</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.027767</v>
+      </c>
+      <c r="N8">
+        <v>0.083301</v>
+      </c>
+      <c r="O8">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="P8">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="Q8">
+        <v>2.711056026044333</v>
+      </c>
+      <c r="R8">
+        <v>24.399504234399</v>
+      </c>
+      <c r="S8">
+        <v>0.0006625476433308056</v>
+      </c>
+      <c r="T8">
+        <v>0.0006625476433308055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>97.63589966666666</v>
+      </c>
+      <c r="H9">
+        <v>292.907699</v>
+      </c>
+      <c r="I9">
+        <v>0.226618328501791</v>
+      </c>
+      <c r="J9">
+        <v>0.2266183285017909</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.237840333333334</v>
+      </c>
+      <c r="N9">
+        <v>12.713521</v>
+      </c>
+      <c r="O9">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="P9">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="Q9">
+        <v>413.7653535886865</v>
+      </c>
+      <c r="R9">
+        <v>3723.888182298179</v>
+      </c>
+      <c r="S9">
+        <v>0.1011189946937817</v>
+      </c>
+      <c r="T9">
+        <v>0.1011189946937817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>97.63589966666666</v>
+      </c>
+      <c r="H10">
+        <v>292.907699</v>
+      </c>
+      <c r="I10">
+        <v>0.226618328501791</v>
+      </c>
+      <c r="J10">
+        <v>0.2266183285017909</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.231839666666667</v>
+      </c>
+      <c r="N10">
+        <v>15.695519</v>
+      </c>
+      <c r="O10">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="P10">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="Q10">
+        <v>510.8153727667534</v>
+      </c>
+      <c r="R10">
+        <v>4597.338354900781</v>
+      </c>
+      <c r="S10">
+        <v>0.1248367861646785</v>
+      </c>
+      <c r="T10">
+        <v>0.1248367861646785</v>
       </c>
     </row>
   </sheetData>
